--- a/.idea/fed_maturities.xlsx
+++ b/.idea/fed_maturities.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,13 +591,19 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20072700</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20072700</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20072800</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6398553400</v>
       </c>
     </row>
   </sheetData>
